--- a/final_result2.XLSX
+++ b/final_result2.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\natega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7580C0-CC6E-45ED-8E4C-7BE57BC68C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A49F901-1B43-491B-8859-6A405624312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -534,170 +534,46 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="183">
+  <dxfs count="36">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -860,1037 +736,248 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font/>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1911,186 +998,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2221,392 +1128,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2625,26 +1146,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:T92" totalsRowShown="0">
   <autoFilter ref="A1:T92" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="رقم الجلوس" dataDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="الاسم" dataDxfId="171"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="المجموع" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="النسبة" dataDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="حالة الطالب" dataDxfId="168"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="عربي" dataDxfId="167"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="اللغة الأجنبية الثانية" dataDxfId="166"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="اللغة الأجنبية الثانية2" dataDxfId="165"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="التاريخ" dataDxfId="135"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="الجغرافيا" dataDxfId="164"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="الفلسفة والمنطق" dataDxfId="163"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="علم النفس والاجتماع" dataDxfId="162"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="الكيمياء" dataDxfId="161"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="الأحياء " dataDxfId="160"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="الجيولوجيا وعلوم البيئة" dataDxfId="159"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="الفيزياء " dataDxfId="158"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="مجموع الرياضيات البحتة" dataDxfId="157"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="الرياضيات التطبيقية" dataDxfId="156"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="التربية الدينية" dataDxfId="155"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="الاقتصاد والإحصاء" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="رقم الجلوس" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="الاسم" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="المجموع" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="النسبة" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="حالة الطالب" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="عربي" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="اللغة الأجنبية الثانية" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="اللغة الأجنبية الثانية2" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="التاريخ" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="الجغرافيا" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="الفلسفة والمنطق" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="علم النفس والاجتماع" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="الكيمياء" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="الأحياء " dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="الجيولوجيا وعلوم البيئة" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="الفيزياء " dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="مجموع الرياضيات البحتة" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="الرياضيات التطبيقية" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="التربية الدينية" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="الاقتصاد والإحصاء" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2940,8 +1461,8 @@
   </sheetPr>
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3030,7 +1551,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A2" s="14">
+      <c r="A2" s="22">
         <v>1457730</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3092,7 +1613,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="22">
         <v>1457705</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3154,7 +1675,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="22">
         <v>1457709</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3216,7 +1737,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="22">
         <v>1457728</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3278,7 +1799,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="22">
         <v>1457673</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3340,7 +1861,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A7" s="14">
+      <c r="A7" s="22">
         <v>1457688</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -3402,7 +1923,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="22">
         <v>1457729</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -3464,7 +1985,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="22">
         <v>1457732</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3526,7 +2047,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="22">
         <v>1457684</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3588,7 +2109,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A11" s="14">
+      <c r="A11" s="22">
         <v>1457671</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -3650,7 +2171,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A12" s="14">
+      <c r="A12" s="22">
         <v>1457663</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -3712,7 +2233,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A13" s="14">
+      <c r="A13" s="22">
         <v>1457667</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -3774,7 +2295,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="22">
         <v>1457731</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -3836,7 +2357,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="22">
         <v>1457733</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -3898,7 +2419,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="22">
         <v>1457708</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -3960,7 +2481,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A17" s="14">
+      <c r="A17" s="22">
         <v>1457690</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -4022,7 +2543,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A18" s="14">
+      <c r="A18" s="22">
         <v>1457679</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -4084,7 +2605,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A19" s="14">
+      <c r="A19" s="22">
         <v>1457669</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -4146,7 +2667,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A20" s="14">
+      <c r="A20" s="22">
         <v>1457685</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -4208,7 +2729,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A21" s="14">
+      <c r="A21" s="22">
         <v>1457717</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -4270,7 +2791,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A22" s="14">
+      <c r="A22" s="22">
         <v>1457661</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -4332,7 +2853,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A23" s="14">
+      <c r="A23" s="22">
         <v>1457683</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -4394,7 +2915,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A24" s="14">
+      <c r="A24" s="22">
         <v>1457687</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -4456,7 +2977,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="14">
+      <c r="A25" s="22">
         <v>1457686</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -4518,7 +3039,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A26" s="14">
+      <c r="A26" s="22">
         <v>1457678</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -4580,7 +3101,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A27" s="14">
+      <c r="A27" s="22">
         <v>1457681</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -4642,7 +3163,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A28" s="14">
+      <c r="A28" s="22">
         <v>1457715</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -4704,7 +3225,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="14">
+      <c r="A29" s="22">
         <v>1457698</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -4766,7 +3287,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A30" s="14">
+      <c r="A30" s="22">
         <v>1457724</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -4828,7 +3349,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A31" s="14">
+      <c r="A31" s="22">
         <v>1457723</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -4890,7 +3411,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A32" s="14">
+      <c r="A32" s="22">
         <v>1457668</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -4952,7 +3473,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A33" s="14">
+      <c r="A33" s="22">
         <v>1457675</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -5014,7 +3535,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="22">
         <v>1457691</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -5076,7 +3597,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A35" s="14">
+      <c r="A35" s="22">
         <v>1457680</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -5138,7 +3659,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A36" s="14">
+      <c r="A36" s="22">
         <v>1457718</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -5200,7 +3721,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A37" s="14">
+      <c r="A37" s="22">
         <v>1457674</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -5262,7 +3783,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A38" s="14">
+      <c r="A38" s="22">
         <v>1457695</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -5324,7 +3845,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A39" s="14">
+      <c r="A39" s="22">
         <v>1457720</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -5386,7 +3907,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A40" s="14">
+      <c r="A40" s="22">
         <v>1457664</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -5448,7 +3969,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A41" s="14">
+      <c r="A41" s="22">
         <v>1457666</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -5510,7 +4031,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A42" s="14">
+      <c r="A42" s="22">
         <v>1457713</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -5572,7 +4093,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A43" s="14">
+      <c r="A43" s="22">
         <v>1457662</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -5634,7 +4155,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A44" s="14">
+      <c r="A44" s="22">
         <v>1457725</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -5696,7 +4217,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A45" s="14">
+      <c r="A45" s="22">
         <v>1457665</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -5758,7 +4279,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A46" s="14">
+      <c r="A46" s="22">
         <v>1457693</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -5820,7 +4341,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="22">
         <v>1457696</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -5882,7 +4403,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A48" s="14">
+      <c r="A48" s="22">
         <v>1457719</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -5944,7 +4465,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A49" s="14">
+      <c r="A49" s="22">
         <v>1457694</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -6006,7 +4527,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A50" s="14">
+      <c r="A50" s="22">
         <v>1457734</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -6068,7 +4589,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A51" s="14">
+      <c r="A51" s="22">
         <v>1457722</v>
       </c>
       <c r="B51" s="15" t="s">
@@ -6130,7 +4651,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A52" s="14">
+      <c r="A52" s="22">
         <v>1457648</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -6192,7 +4713,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A53" s="14">
+      <c r="A53" s="22">
         <v>1457697</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -6254,7 +4775,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A54" s="14">
+      <c r="A54" s="22">
         <v>1457677</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -6316,7 +4837,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A55" s="14">
+      <c r="A55" s="22">
         <v>1457692</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -6378,7 +4899,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A56" s="14">
+      <c r="A56" s="22">
         <v>1457727</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -6440,7 +4961,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A57" s="14">
+      <c r="A57" s="22">
         <v>1457712</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -6502,7 +5023,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A58" s="14">
+      <c r="A58" s="22">
         <v>1457721</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -6564,7 +5085,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A59" s="14">
+      <c r="A59" s="22">
         <v>1457711</v>
       </c>
       <c r="B59" s="15" t="s">
@@ -6626,7 +5147,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A60" s="14">
+      <c r="A60" s="22">
         <v>1457716</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -6688,7 +5209,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A61" s="14">
+      <c r="A61" s="22">
         <v>1457701</v>
       </c>
       <c r="B61" s="15" t="s">
@@ -6750,7 +5271,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A62" s="14">
+      <c r="A62" s="22">
         <v>1457650</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -6812,7 +5333,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A63" s="14">
+      <c r="A63" s="22">
         <v>1457682</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -6874,7 +5395,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A64" s="14">
+      <c r="A64" s="22">
         <v>1457714</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -6936,7 +5457,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A65" s="14">
+      <c r="A65" s="22">
         <v>1457659</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -6998,7 +5519,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A66" s="14">
+      <c r="A66" s="22">
         <v>1457704</v>
       </c>
       <c r="B66" s="15" t="s">
@@ -7060,7 +5581,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A67" s="14">
+      <c r="A67" s="22">
         <v>1457700</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -7122,7 +5643,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A68" s="14">
+      <c r="A68" s="22">
         <v>1457699</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -7184,7 +5705,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A69" s="14">
+      <c r="A69" s="22">
         <v>1457735</v>
       </c>
       <c r="B69" s="15" t="s">
@@ -7246,7 +5767,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A70" s="14">
+      <c r="A70" s="22">
         <v>1457726</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -7308,7 +5829,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A71" s="14">
+      <c r="A71" s="22">
         <v>1457670</v>
       </c>
       <c r="B71" s="15" t="s">
@@ -7370,7 +5891,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A72" s="14">
+      <c r="A72" s="22">
         <v>1457658</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -7432,7 +5953,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A73" s="14">
+      <c r="A73" s="22">
         <v>1457660</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -7494,7 +6015,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A74" s="14">
+      <c r="A74" s="22">
         <v>1457702</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -7556,7 +6077,7 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A75" s="14">
+      <c r="A75" s="22">
         <v>1457654</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -7618,7 +6139,7 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A76" s="14">
+      <c r="A76" s="22">
         <v>1457703</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -7680,7 +6201,7 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A77" s="14">
+      <c r="A77" s="22">
         <v>1457657</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -7742,7 +6263,7 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A78" s="14">
+      <c r="A78" s="22">
         <v>1457689</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -7804,7 +6325,7 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A79" s="14">
+      <c r="A79" s="22">
         <v>1457707</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -7866,7 +6387,7 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A80" s="14">
+      <c r="A80" s="22">
         <v>1457653</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -7928,7 +6449,7 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A81" s="14">
+      <c r="A81" s="22">
         <v>1457656</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -7990,7 +6511,7 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A82" s="14">
+      <c r="A82" s="22">
         <v>1457649</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -8052,7 +6573,7 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A83" s="14">
+      <c r="A83" s="22">
         <v>1457676</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -8114,7 +6635,7 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A84" s="14">
+      <c r="A84" s="22">
         <v>1457710</v>
       </c>
       <c r="B84" s="15" t="s">
@@ -8176,7 +6697,7 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A85" s="14">
+      <c r="A85" s="22">
         <v>1457651</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -8238,7 +6759,7 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A86" s="14">
+      <c r="A86" s="22">
         <v>1457655</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -8300,7 +6821,7 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A87" s="14">
+      <c r="A87" s="22">
         <v>1457647</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -8362,7 +6883,7 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A88" s="14">
+      <c r="A88" s="22">
         <v>1457706</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -8424,7 +6945,7 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A89" s="14">
+      <c r="A89" s="22">
         <v>1457646</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -8486,7 +7007,7 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A90" s="14">
+      <c r="A90" s="22">
         <v>1457652</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -8548,7 +7069,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A91" s="14">
+      <c r="A91" s="22">
         <v>1457645</v>
       </c>
       <c r="B91" s="15" t="s">
@@ -8610,7 +7131,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A92" s="14">
+      <c r="A92" s="22">
         <v>1457672</v>
       </c>
       <c r="B92" s="15" t="s">
@@ -8673,58 +7194,55 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D92">
-    <cfRule type="top10" dxfId="32" priority="18" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="18" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E92">
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="ناجح">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="ناجح">
       <formula>NOT(ISERROR(SEARCH("ناجح",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F92">
-    <cfRule type="top10" dxfId="29" priority="15" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="15" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G92">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>36</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
-      <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H92">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L92">
-    <cfRule type="top10" dxfId="24" priority="9" rank="5"/>
+    <cfRule type="top10" dxfId="10" priority="9" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J92">
-    <cfRule type="top10" dxfId="23" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K92">
-    <cfRule type="top10" dxfId="22" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L92">
-    <cfRule type="top10" dxfId="21" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N92">
-    <cfRule type="top10" dxfId="20" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O92">
-    <cfRule type="top10" dxfId="19" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="5" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P92">
-    <cfRule type="top10" dxfId="18" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="4" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q92">
-    <cfRule type="top10" dxfId="17" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R92">
-    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
